--- a/doc/工作学习计划.xlsx
+++ b/doc/工作学习计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78549D1-F361-4240-B12A-5684D4DB7470}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7D7FCE-D0E4-4296-8004-05E7B6FB75C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="216">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1015,18 +1015,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15:20-**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 整理paddle比赛代码</t>
-  </si>
-  <si>
-    <t>1. 整理paddle比赛代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 整理paddle比赛代码</t>
+    <t>1. 整理代码切分数据
+2. 更换评测方式
+3. paddle比赛整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:20-17:20
+18:40-20:10
+20:30-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Tsinghua语料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:20-**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:50-11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 继续处理预料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1891,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3634,11 +3648,11 @@
       <c r="A139" s="20">
         <v>44000</v>
       </c>
-      <c r="B139" s="43" t="s">
+      <c r="B139" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C139" s="26" t="s">
         <v>210</v>
-      </c>
-      <c r="C139" s="43" t="s">
-        <v>212</v>
       </c>
       <c r="D139" s="43"/>
       <c r="E139" s="43"/>
@@ -3647,8 +3661,12 @@
       <c r="A140" s="20">
         <v>44001</v>
       </c>
-      <c r="B140" s="43"/>
-      <c r="C140" s="43"/>
+      <c r="B140" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="C140" s="43" t="s">
+        <v>212</v>
+      </c>
       <c r="D140" s="43"/>
       <c r="E140" s="43"/>
     </row>
@@ -3656,8 +3674,12 @@
       <c r="A141" s="20">
         <v>44002</v>
       </c>
-      <c r="B141" s="43"/>
-      <c r="C141" s="43"/>
+      <c r="B141" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C141" s="43" t="s">
+        <v>215</v>
+      </c>
       <c r="D141" s="43"/>
       <c r="E141" s="43"/>
     </row>

--- a/doc/工作学习计划.xlsx
+++ b/doc/工作学习计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7D7FCE-D0E4-4296-8004-05E7B6FB75C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E989DC-23DD-4155-81FF-43004478E704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="218">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1031,15 +1031,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9:20-**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9:50-11:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 继续处理预料</t>
+    <t>9:20-11:30
+13:40-15:50
+17:30-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 继续处理预料
+1. 实验对比encoder+bilstm VS lstm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:10-11:00
+14:17-**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 微调代码，+bert
+2. bert论文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1906,7 +1919,7 @@
   <dimension ref="A1:F166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3662,7 +3675,7 @@
         <v>44001</v>
       </c>
       <c r="B140" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C140" s="43" t="s">
         <v>212</v>
@@ -3674,10 +3687,10 @@
       <c r="A141" s="20">
         <v>44002</v>
       </c>
-      <c r="B141" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="C141" s="43" t="s">
+      <c r="B141" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C141" s="26" t="s">
         <v>215</v>
       </c>
       <c r="D141" s="43"/>
@@ -3687,8 +3700,12 @@
       <c r="A142" s="20">
         <v>44003</v>
       </c>
-      <c r="B142" s="43"/>
-      <c r="C142" s="43"/>
+      <c r="B142" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C142" s="26" t="s">
+        <v>217</v>
+      </c>
       <c r="D142" s="43"/>
       <c r="E142" s="43"/>
     </row>
@@ -4348,7 +4365,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58 F58 B58:B64">
+  <conditionalFormatting sqref="F58 D58 B58:B64">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
